--- a/SUPREME_sample_data_results/SUPREME_results.xlsx
+++ b/SUPREME_sample_data_results/SUPREME_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zk0061\Desktop\Current\SUPREME_code\SUPREME_github\SUPREME\SUPREME_sample_data_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zk0061\Desktop\github\SUPREME\SUPREME_sample_data_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAACB1-5E48-4E93-8496-9DBD1B59B09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E1ECE7-6086-4BBC-87F6-8B7126EE7608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="1488" windowWidth="16560" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="16296" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLP+Raw" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,18 @@
     <t>Added Raw Features</t>
   </si>
   <si>
+    <t>Selected Params</t>
+  </si>
+  <si>
+    <t>Train Acc</t>
+  </si>
+  <si>
+    <t>Train wF1</t>
+  </si>
+  <si>
+    <t>Train mF1</t>
+  </si>
+  <si>
     <t>Test Acc</t>
   </si>
   <si>
@@ -46,130 +58,118 @@
     <t>['clinical', 'cna', 'exp']</t>
   </si>
   <si>
+    <t>{'n_iter_no_change': 90, 'max_iter': 1500, 'learning_rate_init': 0.001, 'hidden_layer_sizes': (16,)}</t>
+  </si>
+  <si>
+    <t>0.987+-0.014</t>
+  </si>
+  <si>
+    <t>0.974+-0.031</t>
+  </si>
+  <si>
+    <t>0.838+-0.031</t>
+  </si>
+  <si>
+    <t>0.817+-0.032</t>
+  </si>
+  <si>
+    <t>0.653+-0.072</t>
+  </si>
+  <si>
     <t>['cna']</t>
   </si>
   <si>
+    <t>{'n_iter_no_change': 100, 'max_iter': 250, 'learning_rate_init': 0.01, 'hidden_layer_sizes': (512,)}</t>
+  </si>
+  <si>
+    <t>0.943+-0.074</t>
+  </si>
+  <si>
+    <t>0.946+-0.084</t>
+  </si>
+  <si>
+    <t>0.924+-0.16</t>
+  </si>
+  <si>
+    <t>0.846+-0.066</t>
+  </si>
+  <si>
+    <t>0.845+-0.076</t>
+  </si>
+  <si>
+    <t>0.748+-0.13</t>
+  </si>
+  <si>
     <t>['exp']</t>
   </si>
   <si>
+    <t>{'n_iter_no_change': 100, 'max_iter': 500, 'learning_rate_init': 0.01, 'hidden_layer_sizes': (32,)}</t>
+  </si>
+  <si>
+    <t>0.964+-0.096</t>
+  </si>
+  <si>
+    <t>0.95+-0.164</t>
+  </si>
+  <si>
+    <t>0.838+-0.088</t>
+  </si>
+  <si>
+    <t>0.827+-0.085</t>
+  </si>
+  <si>
+    <t>0.706+-0.129</t>
+  </si>
+  <si>
     <t>['clinical', 'cna']</t>
   </si>
   <si>
+    <t>{'n_iter_no_change': 30, 'max_iter': 2000, 'learning_rate_init': 0.01, 'hidden_layer_sizes': (32,)}</t>
+  </si>
+  <si>
+    <t>0.904+-0.06</t>
+  </si>
+  <si>
+    <t>0.903+-0.059</t>
+  </si>
+  <si>
+    <t>0.866+-0.098</t>
+  </si>
+  <si>
+    <t>0.808+-0.025</t>
+  </si>
+  <si>
+    <t>0.79+-0.029</t>
+  </si>
+  <si>
+    <t>0.606+-0.058</t>
+  </si>
+  <si>
     <t>['clinical', 'exp']</t>
   </si>
   <si>
+    <t>{'n_iter_no_change': 60, 'max_iter': 1000, 'learning_rate_init': 0.001, 'hidden_layer_sizes': (512, 32)}</t>
+  </si>
+  <si>
+    <t>0.979+-0.072</t>
+  </si>
+  <si>
+    <t>0.979+-0.075</t>
+  </si>
+  <si>
+    <t>0.96+-0.146</t>
+  </si>
+  <si>
+    <t>0.808+-0.036</t>
+  </si>
+  <si>
+    <t>0.795+-0.04</t>
+  </si>
+  <si>
+    <t>0.629+-0.1</t>
+  </si>
+  <si>
     <t>['cna', 'exp']</t>
-  </si>
-  <si>
-    <t>Selected Params</t>
-  </si>
-  <si>
-    <t>Train Acc</t>
-  </si>
-  <si>
-    <t>Train wF1</t>
-  </si>
-  <si>
-    <t>Train mF1</t>
-  </si>
-  <si>
-    <t>{'n_iter_no_change': 90, 'max_iter': 1500, 'learning_rate_init': 0.001, 'hidden_layer_sizes': (16,)}</t>
-  </si>
-  <si>
-    <t>0.987+-0.014</t>
-  </si>
-  <si>
-    <t>0.974+-0.031</t>
-  </si>
-  <si>
-    <t>0.838+-0.031</t>
-  </si>
-  <si>
-    <t>0.817+-0.032</t>
-  </si>
-  <si>
-    <t>0.653+-0.072</t>
-  </si>
-  <si>
-    <t>{'n_iter_no_change': 100, 'max_iter': 250, 'learning_rate_init': 0.01, 'hidden_layer_sizes': (512,)}</t>
-  </si>
-  <si>
-    <t>0.943+-0.074</t>
-  </si>
-  <si>
-    <t>0.946+-0.084</t>
-  </si>
-  <si>
-    <t>0.924+-0.16</t>
-  </si>
-  <si>
-    <t>0.846+-0.066</t>
-  </si>
-  <si>
-    <t>0.845+-0.076</t>
-  </si>
-  <si>
-    <t>0.748+-0.13</t>
-  </si>
-  <si>
-    <t>{'n_iter_no_change': 100, 'max_iter': 500, 'learning_rate_init': 0.01, 'hidden_layer_sizes': (32,)}</t>
-  </si>
-  <si>
-    <t>0.964+-0.096</t>
-  </si>
-  <si>
-    <t>0.95+-0.164</t>
-  </si>
-  <si>
-    <t>0.838+-0.088</t>
-  </si>
-  <si>
-    <t>0.827+-0.085</t>
-  </si>
-  <si>
-    <t>0.706+-0.129</t>
-  </si>
-  <si>
-    <t>{'n_iter_no_change': 30, 'max_iter': 2000, 'learning_rate_init': 0.01, 'hidden_layer_sizes': (32,)}</t>
-  </si>
-  <si>
-    <t>0.904+-0.06</t>
-  </si>
-  <si>
-    <t>0.903+-0.059</t>
-  </si>
-  <si>
-    <t>0.866+-0.098</t>
-  </si>
-  <si>
-    <t>0.808+-0.025</t>
-  </si>
-  <si>
-    <t>0.79+-0.029</t>
-  </si>
-  <si>
-    <t>0.606+-0.058</t>
-  </si>
-  <si>
-    <t>{'n_iter_no_change': 60, 'max_iter': 1000, 'learning_rate_init': 0.001, 'hidden_layer_sizes': (512, 32)}</t>
-  </si>
-  <si>
-    <t>0.979+-0.072</t>
-  </si>
-  <si>
-    <t>0.979+-0.075</t>
-  </si>
-  <si>
-    <t>0.96+-0.146</t>
-  </si>
-  <si>
-    <t>0.808+-0.036</t>
-  </si>
-  <si>
-    <t>0.795+-0.04</t>
-  </si>
-  <si>
-    <t>0.629+-0.1</t>
   </si>
   <si>
     <t>{'n_iter_no_change': 10, 'max_iter': 1500, 'learning_rate_init': 0.1, 'hidden_layer_sizes': (64,)}</t>
@@ -596,25 +596,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -622,31 +622,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -654,31 +654,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -686,31 +686,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -718,31 +718,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -750,31 +750,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -782,10 +782,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -814,10 +814,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
